--- a/doc/crane_plus.xlsx
+++ b/doc/crane_plus.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\Git\crane_plus_src\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="82">
   <si>
     <t>L_B2</t>
     <phoneticPr fontId="1"/>
@@ -84,9 +84,6 @@
   <si>
     <t>tmp0/tmp1</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>t1 = math.atan2(y,x)</t>
   </si>
   <si>
     <t>t1</t>
@@ -159,21 +156,11 @@
     <t>theta_3d = math.acos( theta_3d_tmp0 / theta_3d_tmp1 )</t>
   </si>
   <si>
-    <t>t2 = theta_2d + math.atan2(Z_24, R_24)-M_PI/2</t>
-  </si>
-  <si>
     <t xml:space="preserve">        </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>t3 = theta_2d + theta_3d</t>
-  </si>
-  <si>
     <t xml:space="preserve">       </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>t4 = theta_4d - theta_3d + wrist_arg</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -233,17 +220,197 @@
   </si>
   <si>
     <t>度</t>
+  </si>
+  <si>
+    <t>rad</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>theta_1d</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>theta_1d = math.atan2(y,x) - M_PI/2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">t1 = theta_1d </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>theta_1d_tmp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>if theta_1d &lt; -M_PI: theta_1d+=M_PI*2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R_23</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Z_23</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R_B2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Z_B2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R_34</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Z_34</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>theta_3dd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rad</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wrist_arg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R_4G</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Z_4G</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>座標</t>
+    <rPh sb="0" eb="2">
+      <t>ザヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Z</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Z</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wrist_arg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>theta_2dd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>t2 = -(theta_2d + math.atan2(Z_24, R_24)-M_PI/2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>t3 = -(theta_2d + theta_3d)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>t4 = -(theta_4d - theta_3d - wrist_arg)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rad</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rad</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>座標→角度計算</t>
+    <rPh sb="0" eb="2">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクド</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>角度→座標逆計算</t>
+    <rPh sb="0" eb="2">
+      <t>カクド</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ギャク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>角度→座標逆計算（手動）</t>
+    <rPh sb="0" eb="2">
+      <t>カクド</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ギャク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.0"/>
-    <numFmt numFmtId="182" formatCode="0.000"/>
+    <numFmt numFmtId="177" formatCode="0.000"/>
+    <numFmt numFmtId="181" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,6 +430,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -315,7 +489,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -337,13 +511,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="177" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -626,61 +809,157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H47"/>
+  <dimension ref="B1:M54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="17.875" customWidth="1"/>
-    <col min="3" max="3" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="67" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.125" customWidth="1"/>
+    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:13">
+      <c r="B1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13">
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="F2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13">
       <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="8">
-        <v>0.1</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="12">
+        <f>C32</f>
+        <v>0.41245676839228373</v>
+      </c>
+      <c r="H3" s="4">
+        <f>G3/3.14*180</f>
+        <v>23.6440185702583</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="8">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="L3" s="4">
+        <f>K3/3.14*180</f>
+        <v>23.445859872611464</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13">
       <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="8">
-        <v>0.24</v>
+        <v>0.16</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="12">
+        <f t="shared" ref="G4:G7" si="0">C33</f>
+        <v>-9.6658077297370415E-2</v>
+      </c>
+      <c r="H4" s="4">
+        <f>G4/3.14*180</f>
+        <v>-5.5409088896581764</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="8">
+        <v>-8.6999999999999994E-2</v>
+      </c>
+      <c r="L4" s="4">
+        <f>K4/3.14*180</f>
+        <v>-4.9872611464968148</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="8">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="12">
+        <f t="shared" si="0"/>
+        <v>-2.5738325751655271</v>
+      </c>
+      <c r="H5" s="4">
+        <f>G5/3.14*180</f>
+        <v>-147.54454252541237</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="8">
+        <v>-2.5819999999999999</v>
+      </c>
+      <c r="L5" s="4">
+        <f>K5/3.14*180</f>
+        <v>-148.01273885350318</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
       <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
@@ -688,61 +967,181 @@
         <v>0</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="12">
+        <f t="shared" si="0"/>
+        <v>0.9064244978681566</v>
+      </c>
+      <c r="H6" s="4">
+        <f>G6/3.14*180</f>
+        <v>51.960640005180942</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="8">
+        <v>0.89</v>
+      </c>
+      <c r="L6" s="4">
+        <f>K6/3.14*180</f>
+        <v>51.019108280254777</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="F7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <f>G7/3.14*180</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="8">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4">
+        <f>K7/3.14*180</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13">
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:13">
       <c r="B9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="9">
-        <v>7.5999999999999998E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="J9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="2:13">
       <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="9">
-        <v>8.2500000000000004E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13">
       <c r="B11" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="9">
-        <v>9.4E-2</v>
+        <v>9.35E-2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="7">
+        <f>$C9</f>
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" s="7">
+        <f>$C9</f>
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13">
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="9">
-        <v>0.1</v>
+        <v>0.125</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="7">
+        <f>$C10*SIN(G4)</f>
+        <v>-8.0101339818601878E-3</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" s="10">
+        <f>G10+G12</f>
+        <v>-8.0101339818601878E-3</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K12" s="7">
+        <f>$C10*SIN(K4)</f>
+        <v>-7.2118941552901609E-3</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M12" s="10">
+        <f>K10+K12</f>
+        <v>-7.2118941552901609E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13">
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
@@ -750,271 +1149,726 @@
         <v>3.1415000000000002</v>
       </c>
       <c r="D13" s="1"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="F13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="7">
+        <f>$C10*COS(G4)</f>
+        <v>8.2612576243527525E-2</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" s="10">
+        <f>G11+G13</f>
+        <v>0.15361257624352753</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K13" s="7">
+        <f>$C10*COS(K4)</f>
+        <v>8.2686084577109423E-2</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M13" s="10">
+        <f>K11+K13</f>
+        <v>0.15368608457710942</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="F14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="7">
+        <f>$C13/2-G4</f>
+        <v>1.6674080772973705</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I14" s="10"/>
+      <c r="J14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K14" s="7">
+        <f>$C13/2-K4</f>
+        <v>1.6577500000000001</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="M14" s="10"/>
+    </row>
+    <row r="15" spans="2:13">
       <c r="B15" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="F15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="7">
+        <f>-G5-G14</f>
+        <v>0.9064244978681566</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I15" s="10"/>
+      <c r="J15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K15" s="7">
+        <f>-K5-K14</f>
+        <v>0.92424999999999979</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="M15" s="10"/>
+    </row>
+    <row r="16" spans="2:13">
       <c r="B16" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="7">
-        <f>SQRT(C3*C3+C4*C4)-C12*COS(C6)</f>
-        <v>0.16</v>
+        <f>SQRT($C3*$C3+$C4*$C4)-$C12*COS($C6)</f>
+        <v>4.9642491965729812E-2</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="7">
+        <f>$C11*COS(G15)</f>
+        <v>5.7648798763120304E-2</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I16" s="10">
+        <f>G16+I12</f>
+        <v>4.9638664781260118E-2</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K16" s="7">
+        <f>$C11*COS(K15)</f>
+        <v>5.632752183712824E-2</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M16" s="10">
+        <f>K16+M12</f>
+        <v>4.9115627681838081E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13">
       <c r="B17" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="7">
         <f>C5+C12*SIN(C6)-C9</f>
-        <v>7.3999999999999996E-2</v>
+        <v>9.000000000000008E-3</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="7">
+        <f>-$C11*SIN(G15)</f>
+        <v>-7.3612947238711063E-2</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I17" s="10">
+        <f>G17+I13</f>
+        <v>7.9999629004816469E-2</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K17" s="7">
+        <f>-$C11*SIN(K15)</f>
+        <v>-7.4628816711025503E-2</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M17" s="10">
+        <f>K17+M13</f>
+        <v>7.9057267866083913E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13">
       <c r="B18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="7">
+        <f>ATAN2(C3,C4)-C13/2</f>
+        <v>0.41245676839228373</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="7">
+        <f>-(G6-G15)</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I18" s="10"/>
+      <c r="J18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K18" s="7">
+        <f>-(K6-K15)</f>
+        <v>3.4249999999999781E-2</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="M18" s="10"/>
+    </row>
+    <row r="19" spans="2:13">
+      <c r="B19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="7">
+        <f>IF(C18&lt;-C13,C18+2*C13,C18)</f>
+        <v>0.41245676839228373</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" s="7">
+        <f>$C12*COS(G18)</f>
+        <v>0.125</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I19" s="10">
+        <f>G19+I16</f>
+        <v>0.17463866478126011</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K19" s="7">
+        <f>$C12*COS(K18)</f>
+        <v>0.12492669076053033</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M19" s="10">
+        <f>K19+M16</f>
+        <v>0.17404231844236839</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13">
+      <c r="B20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C20" s="7">
         <f>C10*C10-C11*C11+C16*C16+C17*C17</f>
-        <v>2.9046249999999999E-2</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B19" s="3" t="s">
+        <v>6.9212700856754994E-4</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20" s="7">
+        <f>-$C12*SIN(G18)</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I20" s="10">
+        <f>G20+I17</f>
+        <v>7.9999629004816469E-2</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K20" s="7">
+        <f>-$C12*SIN(K18)</f>
+        <v>-4.2804130201216121E-3</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M20" s="10">
+        <f>K20+M17</f>
+        <v>7.4776854845962304E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13">
+      <c r="B21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C21" s="7">
         <f>2*C10*SQRT(C16*C16+C17*C17)</f>
-        <v>2.9086837229234809E-2</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" t="s">
+        <v>8.3749870953982609E-3</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" s="7">
+        <f>$G10+G12+G16+G19</f>
+        <v>0.17463866478126011</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K21" s="7">
+        <f>$G10+K12+K16+K19</f>
+        <v>0.17404231844236839</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13">
+      <c r="B22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="7">
+        <f>C20/C21</f>
+        <v>8.2642158212738931E-2</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="F22" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" s="7">
+        <f>G11+G13+G17+G20</f>
+        <v>7.9999629004816469E-2</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K22" s="7">
+        <f>K11+K13+K17+K20</f>
+        <v>7.4776854845962304E-2</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13">
+      <c r="B23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="7">
+        <f>ACOS(C22)</f>
+        <v>1.4880598077332996</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B20" s="3" t="s">
+    <row r="24" spans="2:13">
+      <c r="B24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="7">
+        <f>C11*C11-C10*C10+C16*C16+C17*C17</f>
+        <v>4.3986270085675482E-3</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="J24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="2:13">
+      <c r="B25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="7">
+        <f>2*C11*SQRT(C16*C16+C17*C17)</f>
+        <v>9.434473414695629E-3</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="F25" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G25" s="7">
+        <f>-G21*SIN(G3)</f>
+        <v>-7.00058780420139E-2</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K25" s="7">
+        <f>-K21*SIN(K3)</f>
+        <v>-6.9215239100028678E-2</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13">
+      <c r="B26" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="7">
-        <f>C18/C19</f>
-        <v>0.99860461868318851</v>
-      </c>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="7">
-        <f>ACOS(C20)</f>
-        <v>5.2833814029553894E-2</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B22" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="7">
-        <f>C11*C11-C10*C10+C16*C16+C17*C17</f>
-        <v>3.3105750000000003E-2</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B23" s="3" t="s">
+      <c r="C26" s="7">
+        <f>C24/C25</f>
+        <v>0.46622920169725812</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="F26" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" s="7">
+        <f>G21*COS(G3)</f>
+        <v>0.15999325072061013</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K26" s="7">
+        <f>K21*COS(K3)</f>
+        <v>0.15968712936589669</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13">
+      <c r="B27" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="7">
-        <f>2*C11*SQRT(C16*C16+C17+C17)</f>
-        <v>7.8330826626558714E-2</v>
-      </c>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B24" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="7">
-        <f>C22/C23</f>
-        <v>0.42264012044493382</v>
-      </c>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B25" s="3" t="s">
+      <c r="C27" s="7">
+        <f>ACOS(C26)</f>
+        <v>1.0857727674322275</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="7">
-        <f>ACOS(C23)</f>
-        <v>1.4923851755388715</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B26" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="7">
+      <c r="F27" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G27" s="7">
+        <f>G22</f>
+        <v>7.9999629004816469E-2</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K27" s="7">
+        <f>K22</f>
+        <v>7.4776854845962304E-2</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13">
+      <c r="B28" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="7">
         <f>ATAN2(C16,C17)</f>
-        <v>0.43320016843163489</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B29" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B30" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="7">
-        <f>ATAN2(C4,C3)</f>
-        <v>0.39479111969976155</v>
-      </c>
-      <c r="D30" s="4">
-        <f>C30/3.14*180</f>
-        <v>22.631338071960855</v>
-      </c>
-      <c r="E30" t="s">
+        <v>0.17934826956407093</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G28" s="7">
+        <f>G18</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K28" s="7">
+        <f>K18</f>
+        <v>3.4249999999999781E-2</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13">
+      <c r="J30" s="11">
+        <v>-7.0011291696074257E-2</v>
+      </c>
+      <c r="K30" s="11">
+        <v>-6.7058151998577509E-2</v>
+      </c>
+      <c r="L30" s="11">
+        <v>-5.6898216357298199E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13">
+      <c r="B31" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J31" s="11">
+        <v>0.2599939597783375</v>
+      </c>
+      <c r="K31" s="11">
+        <v>0.26152971324000074</v>
+      </c>
+      <c r="L31" s="11">
+        <v>0.26055253956558366</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13">
+      <c r="B32" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B31" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="7">
-        <f>C21+ATAN2(C16,C17)-(C13/2)</f>
-        <v>-1.0847160175388113</v>
-      </c>
-      <c r="D31" s="4">
-        <f>C31/3.14*180</f>
-        <v>-62.181172979931851</v>
-      </c>
-      <c r="E31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B32" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="C32" s="7">
-        <f>C21+C25</f>
-        <v>1.5452189895684254</v>
+        <f>C19</f>
+        <v>0.41245676839228373</v>
       </c>
       <c r="D32" s="4">
         <f>C32/3.14*180</f>
-        <v>88.579432523030761</v>
+        <v>23.6440185702583</v>
       </c>
       <c r="E32" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+      <c r="J32" s="11">
+        <v>0.16000252865400083</v>
+      </c>
+      <c r="K32" s="11">
+        <v>0.15774850739994006</v>
+      </c>
+      <c r="L32" s="11">
+        <v>0.16740984023564096</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12">
       <c r="B33" s="3" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C33" s="7">
-        <f>C26-C25+C6</f>
-        <v>-1.0591850071072366</v>
+        <f>-(C23+ATAN2(C16,C17)-(C13/2))</f>
+        <v>-9.6658077297370415E-2</v>
       </c>
       <c r="D33" s="4">
         <f>C33/3.14*180</f>
-        <v>-60.717611872389355</v>
+        <v>-5.5409088896581764</v>
       </c>
       <c r="E33" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+      <c r="J33" s="11">
+        <v>0</v>
+      </c>
+      <c r="K33" s="11">
+        <v>8.3598616375569756E-3</v>
+      </c>
+      <c r="L33" s="11">
+        <v>-2.7640138362443056E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12">
       <c r="B34" s="3" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C34" s="7">
-        <v>0</v>
+        <f>-(C23+C27)</f>
+        <v>-2.5738325751655271</v>
       </c>
       <c r="D34" s="4">
         <f>C34/3.14*180</f>
+        <v>-147.54454252541237</v>
+      </c>
+      <c r="E34" t="s">
+        <v>75</v>
+      </c>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+    </row>
+    <row r="35" spans="2:12">
+      <c r="B35" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="7">
+        <f>-(C28-C27+C6)</f>
+        <v>0.9064244978681566</v>
+      </c>
+      <c r="D35" s="4">
+        <f>C35/3.14*180</f>
+        <v>51.960640005180942</v>
+      </c>
+      <c r="E35" t="s">
+        <v>76</v>
+      </c>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11">
+        <f>J30-K30</f>
+        <v>-2.9531396974967483E-3</v>
+      </c>
+      <c r="L35" s="11">
+        <f>J30-L30</f>
+        <v>-1.3113075338776058E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12">
+      <c r="B36" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="7">
         <v>0</v>
       </c>
-      <c r="E34" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="H36" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="H37" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="H42" t="s">
+      <c r="D36" s="4">
+        <f>C36/3.14*180</f>
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="H46" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="H47" t="s">
-        <v>36</v>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11">
+        <f>J31-K31</f>
+        <v>-1.5357534616632362E-3</v>
+      </c>
+      <c r="L36" s="11">
+        <f t="shared" ref="L36:L38" si="1">J31-L31</f>
+        <v>-5.5857978724616064E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12">
+      <c r="J37" s="11"/>
+      <c r="K37" s="11">
+        <f>J32-K32</f>
+        <v>2.2540212540607674E-3</v>
+      </c>
+      <c r="L37" s="11">
+        <f t="shared" si="1"/>
+        <v>-7.4073115816401247E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12">
+      <c r="J38" s="11"/>
+      <c r="K38" s="11">
+        <f>J33-K33</f>
+        <v>-8.3598616375569756E-3</v>
+      </c>
+      <c r="L38" s="11">
+        <f t="shared" si="1"/>
+        <v>2.7640138362443056E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12">
+      <c r="F40">
+        <f>3.14/180*150</f>
+        <v>2.6166666666666671</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12">
+      <c r="H43" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12">
+      <c r="H44" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="8:8">
+      <c r="H49" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="8:8">
+      <c r="H53" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="8:8">
+      <c r="H54" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
